--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/9_Ardahan_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/9_Ardahan_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52577EA0-0E50-49E3-9918-F06D139D8510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB57F362-7D95-46E8-BE7E-D700189DB5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FF988CA-23EF-4A14-8732-F63758BA750A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A873266C-E699-4B36-BE69-4A26D60FF213}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{63D07249-DF38-4A3F-AD15-F479FE06B72B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{C1149963-25FE-43A9-B2A5-D01C7B8E2698}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{B227E7E9-4CD3-467E-B482-5772B0BA0905}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{9E897897-91B3-4EFE-8FA1-48F4CF15C85B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{8FF26D84-F11E-4A37-A065-1E29E45EF230}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{8D24B44A-C992-47C3-83B5-169F094BEE46}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{775E6C71-285A-4A1B-9E8A-342EADB2E87F}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{3C292FAB-2614-4B25-9EE5-57C28830A8D6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AE46D8-9B23-4D6A-AA80-5C5320415204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF22ED8E-7875-421F-B4AD-96BFC6B1F022}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2417,18 +2417,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1E3B8039-B470-4AB4-8593-3C5A7FB6678D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FE579157-23B8-4834-9029-D801A8E14052}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{046C29FB-4588-4B9C-BF93-D00467E3946C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F21A00C5-E58B-41A6-80B7-EE8540701D7E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DDE1E7CF-7694-4E75-BBC0-46799D99AE29}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C5263437-CEE4-4AC6-A2F6-CEE10DDC1685}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{258A3EEA-5608-4C05-9528-8993A3B00355}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5DF315A9-68FC-483F-9259-A5F46DD7A73F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{72BC65E4-13B4-4F08-92DF-FDFA68F52938}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{96422840-E1F9-4497-92DD-14EFCC3DC2A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4D4F2798-60FA-4E33-96CA-9C698DFCB88F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DAC5F03D-580E-43A2-88CC-918E15570FA6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D9BD6000-0E8F-4BC8-A3B5-313EA79E65B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{77947608-7872-4A2A-8DEB-16405282053B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B93E1873-F740-4EF0-B143-225B6D1A6488}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{60E98A89-FE90-4A6C-A899-363D9597B061}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{95C5E0D6-E9CB-496C-8BDD-FDDDBB36F3BF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0F1DA930-6953-4ED2-AF94-CCBE715B4C60}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1AD389DD-7880-4B2E-8943-280DC0E25888}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7F10F84B-C173-4DC1-8FBE-486AAF03D626}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2092CB7A-81BC-4EA9-BD86-197A64D39D22}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{515C820E-CF19-4B43-B13C-50E8F3F03609}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C73C51B0-0430-4E9C-A8E4-F54C18DE5E21}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E667CBD1-D3CE-4D9F-A971-CF1B491051DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2441,7 +2441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB08665E-7069-4797-A7FA-2DBAC5C10CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25E6064-3CD3-4ABD-802B-A40EC06FE4ED}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3584,18 +3584,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E8B4DDA9-3CEF-4656-917A-EC17F1573CBE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{44B51EA3-B348-4876-9490-95A841932391}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{87D18F61-A06F-40BE-88F0-7285EEF099F0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7A1CD21A-32E6-4E1C-9EC3-761F3756C053}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F7F7E3CF-5B4D-4A55-A773-B23DE6311FBB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{431FAB68-2A88-4057-8572-D93B0A002EFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9D37C729-1CEC-4EA5-B86B-77D50A38D795}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{838B2E3F-C462-491F-8D92-16D8A27A8F0E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AF1EB071-D53D-4FAC-B495-C3A9737258F9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2A4618AB-8CBF-4347-AEE9-6026FE3CA9AC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E9BB1B42-38D8-449E-A6AA-555A776D85C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9B7FF7AB-86C0-41F2-8827-021BF153416D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EEBDE542-5890-4234-A919-BF276A47D3F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BEC2BCAD-08B6-4BD7-9354-2309F5527E46}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CDEAE3AD-2E21-492E-83FB-DEBD443566FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BC0A9039-16F5-423C-8CF3-9784E6B46BA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{635DD37C-3EFE-497B-B06A-4346680CE649}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{09C98255-96B1-4936-8B02-ADC78C316168}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0043485E-1510-4FE2-BA24-2BC483C6739B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{72500C6C-8917-4F44-9DD1-6A86657659D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{78E05E85-AC67-4C95-A381-47B3B0E67322}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BC2CEE47-5CE2-4AD6-BDDB-BF5F082C6DD0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{817B1E2B-61A8-4A06-8566-1F06AE162213}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B1D83B0C-1BD6-4014-AD10-DB266145606F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3608,7 +3608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC3FFC7-268E-41C7-9C52-2D97C98D7B4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4828A79-CD40-4DD8-A083-517933C55451}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4747,18 +4747,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F9F245FB-A104-4084-8AB0-8DAA8B31D7B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2D3FBF88-46FF-4530-B761-F662A867CD21}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{937D04BD-FB41-49E1-AA3E-302CE8A288A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4EECC3C4-7B6C-4DC1-937F-83A845102480}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{17CA1229-AC08-4F2F-90EF-0139834446E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B781A60E-96FD-4423-8EAA-465B608C095A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{17FDA44A-847B-4D57-845C-3A87A948CEB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A2026107-B16E-405E-B8DE-08491EF81275}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DC771CB8-EE42-4D24-A7E9-86CA10B9216D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2B36BCF7-9992-4655-B07B-DC3555ED7AE4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{30B912A3-AF6A-4F43-9DD5-532E533ACAC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{474D9A63-A056-4005-AD18-82E2824F900F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AC2CF685-BA86-4B00-BF38-3560F00A53A4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EB0988DB-DAFA-43D3-A9C4-49DE3BD87862}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{67D480C5-E7CA-4B9A-BF93-AC698BC5C277}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2D8526D5-2ACC-48C7-A77F-FD5ABF584D19}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{23A37A9E-4312-40D5-90FE-BD37331ECD57}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{51AD56CB-1DDF-4F40-B0F6-5C8176114B69}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E2DA6AE8-80DA-4991-8745-E9BF754FFDAC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DDF4651E-32A0-425E-9290-B6AE5C2CE3A0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D9C6B985-297E-4CCB-A5DA-9875A7832E24}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1DAD53D5-1D6A-4766-929A-2B3016F71F70}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{38D7E11C-03F8-448A-9D8A-0030BA7F385B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AD8A2DF7-1382-4AFD-9996-93B1D6F43E72}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4771,7 +4771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32D421F-B89F-4172-A135-7C6B7A5EF81E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C80A95-3881-45E0-A8F0-16961A77442C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5892,18 +5892,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{925BB872-59CD-4936-B76E-A6AA3CB7D6D5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CEF6468C-A185-46B5-8589-5EF766F21EE8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{18EAAD9A-6841-4CFC-BA8E-CC7CD0DFA7FB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0558EE7A-1E5A-49FE-9608-8E11EADAADE5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3BA0B8FD-2333-48D2-A50B-7B22330B529A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DFF64D4D-798E-4A81-9AE9-FEB1E6DD90F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2E0A84FE-2577-4BEA-A11A-992F448F035D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E31EBE62-3DB0-464E-8F96-2E2CDDC7C8C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8B3D1E66-6834-4923-B1C2-F8A9730609D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0239DD41-363F-4123-8EEA-3B19AF73E604}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F4EAA4FE-B4AA-4022-8CE4-6D7142C45CD4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F9603B7B-C77D-4786-9627-C4F773306B22}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7B466743-BCEB-4BDE-8B83-59EDEC9F8B7E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{11C40D3F-C382-4B40-BBC4-5EF24F97FF0F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{57F503F1-F950-45A8-9F0A-4A62455A32D0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{41514CCC-926A-4DF4-9851-FF2D005B8CAD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9F651C4D-1AC9-4760-9F86-F0B93B06A84B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{105CED59-7FC5-462C-9A4A-396E9C1A61BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A8377A54-A15D-4FF2-BD1E-14B9DD264BE1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6642C283-1538-4350-AACE-C89260CD63B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F57C2FF5-6643-4D78-9917-F12EB7CF3DAA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1851C605-13CA-4AB3-BCE5-5BBB34E9D0CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{422ED194-A9CF-466F-A697-DDE7FE98EC9F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{20A477A6-4BF2-433E-A758-E6A7BDB14933}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5916,7 +5916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE64F7C-6914-4A8A-ADBE-7F9B5D2217D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6C5BC7-26DB-46F1-93C3-ADE6D314C903}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7099,18 +7099,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{29BD07A6-C0D2-4983-AB40-4126AEB5926B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{55AB7458-6CA9-4114-A4CB-046FE3D60AB0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1473CB0A-BF11-40FF-8106-2E3250A3CA9E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{43D52AB4-3203-48B9-84F1-7620894381F9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E622538E-0EAF-4D10-AE71-F132085C0990}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{409EE9EB-0C3C-4C1F-9FDE-6FA8638B46D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CA1FB74C-4FCF-4B91-A9AA-460747328B8F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F37DB885-5DB2-4603-AB6C-4DA963B0E8AA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0955B997-D4F2-4931-8C7B-6E47059F04FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{66E8BA06-AD36-4959-B71D-E337B0ACF52D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B81CEAE2-DDBB-45C7-8477-9A033AF9B563}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{06464F80-F474-4A53-906C-1D2BF2F7E322}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{76A6AAD7-B264-48BC-B458-D4B510F5D3C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{907E1228-73AE-4134-95A2-AC0C4673B565}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C51D4D95-6EE2-45B3-BB0A-610039A54AEC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{020B9781-C8E5-41EF-93BD-F78FC43EDB64}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A9106510-B35B-4D83-B6B7-CDEADDA186E0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0A960BCF-F8C2-4B55-A4C8-6D95C7CFAEC2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1C2D28FB-3F2B-46AB-83B9-5C4A3F82D1CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E9562C32-7384-43F1-9C72-FD9DCF36B184}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1E2B8E52-FAE2-4276-9D8C-5303F3CBBBC6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5909DE92-7FA3-4B5F-AFD9-5AE4E183A810}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AD47C19F-7CBB-4BF1-BE7C-CE1B0222423D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EB636C18-A405-4AEB-A3B6-FED8293F4E7E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7123,7 +7123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7766DEFF-B135-4030-9CAC-5B27B6310F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A931E0C8-CDBF-47AE-9207-3604287E03C3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8306,18 +8306,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{026D1CF8-9A26-4171-B964-E8E7CF556FBC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E4BA690B-0D5F-4B20-BFA4-A34A8B84FFEA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{673947EE-2EA8-4FDC-9116-0AA9EB210F50}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5C4588B0-26E2-4C1C-8857-EBF115F7DFC4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9BFDC677-2F77-468B-B250-786934603723}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{357CBCD4-64E4-411F-9BD3-99BDC63EFB3B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4B1FB168-50A5-4A22-BD06-45C21C26C381}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CB580E1B-83E7-4105-A031-94B07052BEF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AE1EFC6B-3C74-4B13-8005-1197B0A9C782}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A3BF0E6B-EBB0-4B85-A923-F6667C9C832E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AD52698E-26B2-4181-9E90-FE7819A8AF83}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F407C257-36BE-4300-91F4-82D6D058B5FD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{444A68F2-B1D1-4258-98C8-142351D72BB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6605E630-B7FB-48FB-AA35-C98C12375FA6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9CF85FC8-9119-4E00-A076-BEEBB49DFACE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CF8E5498-7882-4CDE-B564-63BF1F3CF7ED}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ABF39D24-CC7B-4C59-A7E2-B5636D20394D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{10F22D2D-DE81-4B39-84D2-C989C4EFB9E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E7880DB3-C767-4A7E-936D-0E7A27A96278}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EB5AD701-8786-4914-BF6A-D6043240AC85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7F3C8BB2-F873-48F1-B89B-41B3F12C971A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9FFF1EDE-38A2-4815-9376-EE7D96A7905C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EE849F36-5C54-493B-ABC3-31A579B635E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{55FE65B5-5BFB-4F15-8E4F-0A41302A992B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8330,7 +8330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BD4C0C-603F-4D5A-9D9B-EEF4712C0150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F214B1-5C23-46FA-B003-69CB5F3324F6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9507,18 +9507,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D017525B-D90B-4665-950C-A0A67F45FBC6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6B8A3821-C20E-4D83-9100-62FB775C4625}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C729D135-EE30-4AC6-8CEC-49DB9D70067F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C78AB3FD-0259-4B6D-8DDB-31103548D76A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C3DD2971-D48E-4CBE-A886-E1F0AD7B99BA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DFAD1BB4-0266-4B35-AE4D-B2FE219D1465}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0AAD24DA-8570-47C6-B6EC-E8B591BB4AA5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{93F2EFDC-B964-425B-BC93-A40B3193475E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3EC45D05-9FB4-4C69-8D17-04A45D913EC5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{34A148D3-EB07-423D-9744-2399BFFBBB0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7960D2B1-0C1F-41A3-81AC-5630A5E03F93}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B86DEBDB-803A-4B5E-97FB-07CEE3635CC7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{66C55833-2C47-4EB2-ACD2-90D355BAC065}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9D07249A-6F2F-4DEE-8E39-37465E6B9004}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C3488C28-A7B0-4108-BAE7-D5C1D8696EDF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8BAE6C1C-D0E5-4924-8AF7-9C34F8514E22}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C8CAD221-9631-4837-8C45-2B5916F98D1E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2F8808FB-AAE1-417A-BB7E-87766B3F58A0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0B27F870-4F09-41BC-9CE0-DDE7849E694E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{68136AC9-3929-4BB2-BBEF-A763C234A33B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EE218DBA-E490-4D38-B3B9-8A0CA401FF42}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{44B325C2-7B8B-4E67-98A0-695EB5D1FF07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B7B7340B-7B57-4DF0-B4A2-C27D2F3CD4F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7391C8DA-AF91-429C-A1FE-9C1AD2D26238}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9531,7 +9531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD6C205-00CC-4A9A-B451-44AF3326A484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C208061-9700-4675-AD92-8CAD92B46E36}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10700,18 +10700,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D52680B2-0F03-4D5C-BB7C-E0D6E86CBAE7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E125A032-24D0-4FF0-8E52-19ECE37CCC36}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3FCFD46E-F88B-47F1-BFAB-62E71233BF7C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{30059F5C-E6E2-4FE2-9F13-128BEE498771}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CC2E32EA-FF81-4DFC-B882-5DCFDF81E8C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{172AA756-6D9C-4BF5-9610-C9C6DD75FFED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B8CA2A75-BE2B-4500-9EE9-34DA5713E916}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B19095CF-4DD1-433A-B993-F97BA4930063}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6C11B36B-35C9-4438-B1B4-F13FAB207471}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E0C46AAF-3F34-41E7-8862-B6E5C33F3A54}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{82494E84-FF5D-4204-B560-802AE9E0D0EF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7120E9E0-070B-42D7-A8DC-1D65EDFA51E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{913E6A94-5BE2-4B96-A83F-DD5C734BB496}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{59C4D605-5446-4179-97E1-1EB641D48C43}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9BAFAD61-B485-4DDF-9575-C369A7252DA3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9CA957D2-D8F8-4FC8-A34F-110DFFF1FFBF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ED72F7CF-31DC-42C3-96CF-12E979CEECD3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{75065862-CD79-4EDC-A3BD-BC307B092210}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CD158224-5C1E-4BBE-8E3A-233A93794CFC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DF5914A0-464E-41AB-999E-BFFFED431E40}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{ECC0E36C-E974-4319-B5F3-43A018FDA094}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2C7619BE-2525-4C85-9527-95203342C625}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F463076B-6920-4585-81F6-C048FE62B6B9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{14176A07-1886-4ED3-BD27-D70F9490AF61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10724,7 +10724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F61B266-4A2A-440D-88B4-019F587DDBEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDFBA35-490B-48A9-B082-D10158B006C1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11893,18 +11893,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D108A363-59B9-46A0-BD52-76A8446EB7AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C9E87A32-0AB6-4456-A076-A592817B9B70}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9DF818DF-C099-4640-B759-21D0CD53A2BC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E07DF926-3E70-45D6-B6B7-F501D63638F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5B76DB52-9E5E-4F5B-8BF8-43FCFF931DE7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{63C9C74A-8DA0-4659-85DB-6C9DFAC2A29D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0F40DF56-843E-4D33-9C36-D177245C0426}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FD8C2A16-A4D9-414E-9E96-148E255BD4CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{99AD21C1-503C-4899-AFBB-57F8D9076BFA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{29BC4799-055D-4545-8FC2-326C0EA23F0A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{537AD259-5A6A-4FBD-B5F4-B6374A4A451A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5BED36E3-5202-43D2-B680-88B62E018590}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2C8FF1C3-4292-4981-852F-F86D9C30825C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F34BD643-C17C-4154-BBE3-6DE887F0E700}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9BE1318D-4E1F-4ABE-BAD9-6C4757923CA2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A3BA73B1-6B6B-441F-B85D-6C4FB2AE08AD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8AB88EF9-3B46-47A1-8D7B-CECF3E9470B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6C961955-048D-4BC6-9234-055A482FC145}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{50E8EC52-7887-4A96-96C2-F85F70BE4277}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B6F25AA4-B324-4124-9904-93C3AE26BD93}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{13D7F883-0D81-49C7-9CF9-30A60995FF9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AE5F48A0-FF8C-4C25-9D3A-64DDDD460591}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E100642E-D12F-42B4-8F30-745626BF4CA1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1C95DB0D-F7B4-4D96-874F-3375684B89E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11917,7 +11917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1AE7A7-2173-44DC-A32A-260B8A4711E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651325CF-9926-4FDE-8198-3EB73EF43639}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13078,18 +13078,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6A271C60-D15E-455A-AE4F-114F5544005C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{75DE6D6E-C8D7-4E93-A7B6-0EE4B524EB3B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D14AC834-6F3A-4841-9071-6EF2957D3EE8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A9DBC20C-5B58-4F4F-972A-D0245885BBCC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{47FC3BCF-2E08-4BA8-8ABC-117C780DA7E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9D205BCF-D9C9-4746-8757-7CDABDCC9C0A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4E8CC407-C4C9-4E13-82AC-F7CC31EA1FE5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{868BBD7C-CE30-4EA8-8783-48D9706F39D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{42C45BB6-966E-47DF-9A74-E5895A5AEA12}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6E4C656E-7686-4EC7-8289-81E792945CB6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3B36DA56-0C6C-4109-B39B-AC317155F534}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A2D50451-AC87-4FF4-9A17-D9447197BE95}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D573F4C7-B5EF-49B1-B9AE-CB1D507162FB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2958E399-91CE-4C94-9E7B-D28617EF5D87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3BE4E7C0-E209-4836-B065-E8A7AB95A4B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{90935CA0-E7E1-43E6-8CCF-82EA0EFBCA2E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{514917E3-9EF7-4CD0-A473-213DFA288A56}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B134BAC9-8D9A-4955-B557-F634FC03EC7C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B7C39847-B291-4227-BCF9-2B5DDF9B2C32}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4F2CC50C-8392-445D-AF3F-7F9DBF608B20}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F76B0758-7631-4072-BCA5-AE7CEE3FACF9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8EA0854D-6B07-4CA8-B285-23AE397B499D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B5F06060-A36E-4320-AD33-64F5CB7F18BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{224CBEED-BCDA-48B9-A76D-A98D24422C2F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13102,7 +13102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37991461-7F20-4583-9305-8A75BF2C6ACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58009AA4-E555-4A5E-A254-C72215FCB4B2}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14259,18 +14259,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{848F16DB-3B00-4835-95BB-BA2D073FBB92}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EFC569D2-59AB-4650-BDB7-AF64D3F1333A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{149A9095-9EA4-45B0-941C-DEAD98014E9D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8AA5F613-16AB-4F7C-B542-C7250EAB8810}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F7DB7D4A-7E97-4469-BBF4-E4709964FDF7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{96F51A6D-B603-4B22-AB5A-AF1284C4CB6A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C08F953E-29B6-4C30-879A-601BBAFC8F86}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BAB9B713-9B93-4455-9571-99F61CB524A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6E41EDC2-9237-4389-9854-5C866F66A52A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{724423BC-CAE5-4BA8-A4BB-7D2B5EF1B70D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6C8592C9-184C-40F7-8F0E-77FFD1DC2998}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{41405C08-530F-4BA9-807E-35B39C53D8B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{07B0534E-609C-4033-A430-136FE5EEB363}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5EA61A9C-18BC-42F5-B034-E46D8F3F07CB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{65934FCE-1D4A-4175-9790-7C6A41CC895B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3C19BA09-0C1A-41A2-921A-6E0367428A77}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D7B1B218-13E2-4176-9B86-8747BFB6E8CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2045501A-9700-4E61-AE7B-B6DEE63910CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{77FC2362-D4B4-461C-A07D-72EFF86460B2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{52BA77A9-32BD-47C6-B518-546A1AD54845}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B0866A7C-FEA6-4050-9F22-D6889023E574}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{426000B6-2E3C-40B0-B62F-8376323015B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F5C82C6B-2C3D-498F-BD84-DBBAB3688FF4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A1CF38E4-2A4F-4712-92AA-DD8FAFC9FCDF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14283,7 +14283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C35942F-B37C-49BE-9DE2-7189ABA7E6B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460C73E7-ED89-448B-B6D9-11E68DF1797D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15440,18 +15440,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4F2B203A-FDC4-4C64-ACFA-29AC6FCDFAA8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{85E4C3CF-DA4D-4CA9-9FF8-3A1B5FCDA481}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{80F20838-FE0D-4551-A5B4-9EB56E59DEDF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4B985451-6013-40B2-8502-82E760DB1214}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{74164E54-8F73-4A03-A310-60BF197D0378}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AA4BB2D6-7A61-4B6E-A6E5-222C3FE072BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B4AC98D6-9C1F-4638-979C-DCC0995AB062}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{303D5E9C-34AC-4F28-A791-12989E77FAC9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B89E2B1F-6FF1-40A8-855B-0854B8D7B37D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3173C1C7-609C-464E-B471-9E6D48F9A64D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E102B6A9-5A42-4BAE-AB85-5B7132B35142}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A526F465-B3C7-4729-B2C7-85BEF9213873}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6DF933B5-FC46-47F3-B6D3-0A4FDE505260}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E7AFC28F-1945-4B72-8581-E1723587BAA9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{49AF4872-0ABC-418F-AFCA-95D2742A856E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D75EF794-F3AB-4549-96D4-C8734B310A33}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{50A9E5C7-4736-468D-8318-07D7C0FD7F1F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{019F2AD5-4623-4B3B-81A8-650ADE8F2341}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{20D65D92-849A-47BF-BCDC-974B24E9CE18}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{23851E85-9628-4B80-9F3C-6CC34B0791A4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0FF71B8F-1FB6-457F-BE7D-9E468AA60BC5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F29B1F71-E6F8-4F8A-8C16-498C1F71E101}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DC1389DC-BFDD-445A-927F-00389851D8B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ECA0AFA8-EC23-4C0B-B306-77BBFC306D20}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
